--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\plv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61016111-E478-460B-8BD5-DA520ECDF3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F01D7-4D0F-4086-ABDC-23141D89C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +116,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -486,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -740,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,77 +840,235 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35">
+      <c r="C35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="166">
         <v>0.05</v>
       </c>
-      <c r="D35">
+      <c r="E35" s="166">
         <v>0.1</v>
       </c>
-      <c r="E35">
+      <c r="F35" s="166">
         <v>0.15</v>
       </c>
-      <c r="F35">
+      <c r="G35" s="166">
         <v>0.2</v>
       </c>
-      <c r="G35">
+      <c r="H35" s="166">
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="166">
+        <v>86.653846486561307</v>
+      </c>
+      <c r="D36" s="166">
+        <v>68.538851258805579</v>
+      </c>
+      <c r="E36" s="166">
+        <v>56.399121099663503</v>
+      </c>
+      <c r="F36" s="166">
+        <v>52.083178343526598</v>
+      </c>
+      <c r="G36" s="166">
+        <v>57.041093204381824</v>
+      </c>
+      <c r="H36" s="166">
+        <v>48.910411566420713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="166">
+        <v>86.757982335487341</v>
+      </c>
+      <c r="D37" s="166">
+        <v>68.707993437082806</v>
+      </c>
+      <c r="E37" s="166">
+        <v>66.209528917493515</v>
+      </c>
+      <c r="F37" s="166">
+        <v>87.710522294022169</v>
+      </c>
+      <c r="G37" s="166">
+        <v>89.131837934007507</v>
+      </c>
+      <c r="H37" s="166">
+        <v>85.146878433204435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="166">
+        <v>86.601291245310648</v>
+      </c>
+      <c r="D38" s="166">
+        <v>68.726586446826246</v>
+      </c>
+      <c r="E38" s="166">
+        <v>79.112962338197832</v>
+      </c>
+      <c r="F38" s="166">
+        <v>90.013846717243794</v>
+      </c>
+      <c r="G38" s="166">
+        <v>90.284270048472152</v>
+      </c>
+      <c r="H38" s="166">
+        <v>79.172755242980756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="166">
+        <v>85.876878981075393</v>
+      </c>
+      <c r="D39" s="166">
+        <v>69.822512882175999</v>
+      </c>
+      <c r="E39" s="166">
+        <v>87.794340781494654</v>
+      </c>
+      <c r="F39" s="166">
+        <v>89.823285668561155</v>
+      </c>
+      <c r="G39" s="166">
+        <v>89.973529182778421</v>
+      </c>
+      <c r="H39" s="166">
+        <v>86.406139614817889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40">
+      <c r="B40" s="166">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="166">
+        <v>85.865471731301028</v>
+      </c>
+      <c r="D40" s="166">
+        <v>70.760537144208286</v>
+      </c>
+      <c r="E40" s="166">
+        <v>91.520226530217968</v>
+      </c>
+      <c r="F40" s="166">
+        <v>89.87302658327495</v>
+      </c>
+      <c r="G40" s="166">
+        <v>90.252891460998782</v>
+      </c>
+      <c r="H40" s="166">
+        <v>82.563816872695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41">
+      <c r="B41" s="166">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="166">
+        <v>86.221259122772125</v>
+      </c>
+      <c r="D41" s="166">
+        <v>78.519099069484454</v>
+      </c>
+      <c r="E41" s="166">
+        <v>90.847602487910791</v>
+      </c>
+      <c r="F41" s="166">
+        <v>89.76026320873595</v>
+      </c>
+      <c r="G41" s="166">
+        <v>87.660862118184411</v>
+      </c>
+      <c r="H41" s="166">
+        <v>80.199696075802265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42">
+      <c r="B42" s="166">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="166">
+        <v>85.874133859289444</v>
+      </c>
+      <c r="D42" s="166">
+        <v>88.419052067924468</v>
+      </c>
+      <c r="E42" s="166">
+        <v>89.883205448720716</v>
+      </c>
+      <c r="F42" s="166">
+        <v>88.753028428734979</v>
+      </c>
+      <c r="G42" s="166">
+        <v>83.75024582104227</v>
+      </c>
+      <c r="H42" s="166">
+        <v>72.121817662782547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43">
+      <c r="B43" s="166">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="166">
+        <v>86.574837729276766</v>
+      </c>
+      <c r="D43" s="166">
+        <v>86.660046078829978</v>
+      </c>
+      <c r="E43" s="166">
+        <v>86.461266965977231</v>
+      </c>
+      <c r="F43" s="166">
+        <v>82.724619878487999</v>
+      </c>
+      <c r="G43" s="166">
+        <v>76.230895884335794</v>
+      </c>
+      <c r="H43" s="166">
+        <v>70.016632208467783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -834,77 +1080,235 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46">
+      <c r="C46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D46" s="166">
         <v>0.05</v>
       </c>
-      <c r="D46">
+      <c r="E46" s="166">
         <v>0.1</v>
       </c>
-      <c r="E46">
+      <c r="F46" s="166">
         <v>0.15</v>
       </c>
-      <c r="F46">
+      <c r="G46" s="166">
         <v>0.2</v>
       </c>
-      <c r="G46">
+      <c r="H46" s="166">
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="166">
+        <v>80.180843548242919</v>
+      </c>
+      <c r="D47" s="166">
+        <v>68.215716975637051</v>
+      </c>
+      <c r="E47" s="166">
+        <v>56.359708994022441</v>
+      </c>
+      <c r="F47" s="166">
+        <v>51.697292652473926</v>
+      </c>
+      <c r="G47" s="166">
+        <v>56.871962560229761</v>
+      </c>
+      <c r="H47" s="166">
+        <v>48.225013480508757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="166">
+        <v>79.809237104127206</v>
+      </c>
+      <c r="D48" s="166">
+        <v>68.314206870301646</v>
+      </c>
+      <c r="E48" s="166">
+        <v>64.67615925166595</v>
+      </c>
+      <c r="F48" s="166">
+        <v>85.160448331444599</v>
+      </c>
+      <c r="G48" s="166">
+        <v>84.337159779352177</v>
+      </c>
+      <c r="H48" s="166">
+        <v>80.680928612415926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="166">
+        <v>79.107379821624761</v>
+      </c>
+      <c r="D49" s="166">
+        <v>67.228741886463851</v>
+      </c>
+      <c r="E49" s="166">
+        <v>75.423322577761624</v>
+      </c>
+      <c r="F49" s="166">
+        <v>85.2021326597404</v>
+      </c>
+      <c r="G49" s="166">
+        <v>87.006957960997354</v>
+      </c>
+      <c r="H49" s="166">
+        <v>75.016623557873928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="166">
+        <v>79.614835191769259</v>
+      </c>
+      <c r="D50" s="166">
+        <v>67.732200682243501</v>
+      </c>
+      <c r="E50" s="166">
+        <v>84.559964474894514</v>
+      </c>
+      <c r="F50" s="166">
+        <v>87.935703019345596</v>
+      </c>
+      <c r="G50" s="166">
+        <v>87.046375833700978</v>
+      </c>
+      <c r="H50" s="166">
+        <v>82.507213153516332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51">
+      <c r="B51" s="166">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="166">
+        <v>80.134862758328367</v>
+      </c>
+      <c r="D51" s="166">
+        <v>69.255725972254652</v>
+      </c>
+      <c r="E51" s="166">
+        <v>88.955613802887584</v>
+      </c>
+      <c r="F51" s="166">
+        <v>86.00859869030009</v>
+      </c>
+      <c r="G51" s="166">
+        <v>86.529814271749757</v>
+      </c>
+      <c r="H51" s="166">
+        <v>78.3108965763833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52">
+      <c r="B52" s="166">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="166">
+        <v>79.178406964304756</v>
+      </c>
+      <c r="D52" s="166">
+        <v>78.004953906752377</v>
+      </c>
+      <c r="E52" s="166">
+        <v>87.726439386730576</v>
+      </c>
+      <c r="F52" s="166">
+        <v>86.549751007073311</v>
+      </c>
+      <c r="G52" s="166">
+        <v>83.818337528871353</v>
+      </c>
+      <c r="H52" s="166">
+        <v>74.987667136682276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53">
+      <c r="B53" s="166">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="166">
+        <v>79.520699429349165</v>
+      </c>
+      <c r="D53" s="166">
+        <v>83.451667690320264</v>
+      </c>
+      <c r="E53" s="166">
+        <v>86.480961484672605</v>
+      </c>
+      <c r="F53" s="166">
+        <v>84.246824511169351</v>
+      </c>
+      <c r="G53" s="166">
+        <v>78.934033454730013</v>
+      </c>
+      <c r="H53" s="166">
+        <v>68.367540664999979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54">
+      <c r="B54" s="166">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="166">
+        <v>79.458530494785151</v>
+      </c>
+      <c r="D54" s="166">
+        <v>80.055969342295356</v>
+      </c>
+      <c r="E54" s="166">
+        <v>81.382924304420158</v>
+      </c>
+      <c r="F54" s="166">
+        <v>76.118836091431007</v>
+      </c>
+      <c r="G54" s="166">
+        <v>71.157351418841571</v>
+      </c>
+      <c r="H54" s="166">
+        <v>66.963901071808579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -916,99 +1320,379 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57">
+      <c r="C57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D57" s="166">
         <v>0.05</v>
       </c>
-      <c r="D57">
+      <c r="E57" s="166">
         <v>0.1</v>
       </c>
-      <c r="E57">
+      <c r="F57" s="166">
         <v>0.15</v>
       </c>
-      <c r="F57">
+      <c r="G57" s="166">
         <v>0.2</v>
       </c>
-      <c r="G57">
+      <c r="H57" s="166">
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="166">
+        <v>60.23054986058127</v>
+      </c>
+      <c r="D58" s="166">
+        <v>60.416479958015778</v>
+      </c>
+      <c r="E58" s="166">
+        <v>54.277349573381542</v>
+      </c>
+      <c r="F58" s="166">
+        <v>51.582349328281389</v>
+      </c>
+      <c r="G58" s="166">
+        <v>55.345790188496451</v>
+      </c>
+      <c r="H58" s="166">
+        <v>45.947612003564039</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="166">
+        <v>59.272721505664691</v>
+      </c>
+      <c r="D59" s="166">
+        <v>61.043284688160497</v>
+      </c>
+      <c r="E59" s="166">
+        <v>59.726047226475437</v>
+      </c>
+      <c r="F59" s="166">
+        <v>68.585351084351942</v>
+      </c>
+      <c r="G59" s="166">
+        <v>69.101145626980639</v>
+      </c>
+      <c r="H59" s="166">
+        <v>69.089680706580509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="166">
+        <v>59.537521950881931</v>
+      </c>
+      <c r="D60" s="166">
+        <v>60.529474015057787</v>
+      </c>
+      <c r="E60" s="166">
+        <v>62.891737817801193</v>
+      </c>
+      <c r="F60" s="166">
+        <v>68.035709651467585</v>
+      </c>
+      <c r="G60" s="166">
+        <v>74.350204874897997</v>
+      </c>
+      <c r="H60" s="166">
+        <v>68.32214811546811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C61" s="166">
+        <v>59.222317378754717</v>
+      </c>
+      <c r="D61" s="166">
+        <v>60.940227279936103</v>
+      </c>
+      <c r="E61" s="166">
+        <v>71.16702854984328</v>
+      </c>
+      <c r="F61" s="166">
+        <v>73.560232643304303</v>
+      </c>
+      <c r="G61" s="166">
+        <v>73.191192542034685</v>
+      </c>
+      <c r="H61" s="166">
+        <v>71.43954532478655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62">
+      <c r="B62" s="166">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="166">
+        <v>59.071998892723983</v>
+      </c>
+      <c r="D62" s="166">
+        <v>61.287704334235883</v>
+      </c>
+      <c r="E62" s="166">
+        <v>75.141434326133151</v>
+      </c>
+      <c r="F62" s="166">
+        <v>74.745467809698468</v>
+      </c>
+      <c r="G62" s="166">
+        <v>74.646245498086756</v>
+      </c>
+      <c r="H62" s="166">
+        <v>69.358644970977267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63">
+      <c r="B63" s="166">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="166">
+        <v>60.22901582193618</v>
+      </c>
+      <c r="D63" s="166">
+        <v>66.479946481659283</v>
+      </c>
+      <c r="E63" s="166">
+        <v>70.302747716964106</v>
+      </c>
+      <c r="F63" s="166">
+        <v>75.775799675314389</v>
+      </c>
+      <c r="G63" s="166">
+        <v>73.079628716511394</v>
+      </c>
+      <c r="H63" s="166">
+        <v>63.666675317260527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64">
+      <c r="B64" s="166">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="166">
+        <v>59.411240581665922</v>
+      </c>
+      <c r="D64" s="166">
+        <v>65.367987612349594</v>
+      </c>
+      <c r="E64" s="166">
+        <v>73.601524811344973</v>
+      </c>
+      <c r="F64" s="166">
+        <v>69.175229312825664</v>
+      </c>
+      <c r="G64" s="166">
+        <v>67.353027852028703</v>
+      </c>
+      <c r="H64" s="166">
+        <v>61.277819588981451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65">
+      <c r="B65" s="166">
         <v>1</v>
+      </c>
+      <c r="C65" s="166">
+        <v>59.563179612280393</v>
+      </c>
+      <c r="D65" s="166">
+        <v>63.308731044386192</v>
+      </c>
+      <c r="E65" s="166">
+        <v>65.630319754784495</v>
+      </c>
+      <c r="F65" s="166">
+        <v>65.236913814133331</v>
+      </c>
+      <c r="G65" s="166">
+        <v>62.823842190099683</v>
+      </c>
+      <c r="H65" s="166">
+        <v>56.423873332237591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C56:H56"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G21">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:G21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:G21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G32">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G32">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:H43">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:H43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1020,31 +1704,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="D47:H54">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H54">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:H54">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1056,31 +1740,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="D58:H65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:H65">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:H65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1092,31 +1776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:G43">
+  <conditionalFormatting sqref="C36:H43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1128,31 +1788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G43">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G43">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:G54">
+  <conditionalFormatting sqref="C47:H54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1164,56 +1800,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G54">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:G54">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:G65">
+  <conditionalFormatting sqref="C58:H65">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G65">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:G65">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1230,15 +1818,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="108"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1250,77 +1841,225 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="109">
+        <v>86.653846486561307</v>
+      </c>
+      <c r="D3" s="112">
+        <v>68.538851258805579</v>
+      </c>
+      <c r="E3" s="115">
+        <v>56.399121099663503</v>
+      </c>
+      <c r="F3" s="118">
+        <v>52.083178343526598</v>
+      </c>
+      <c r="G3" s="121">
+        <v>57.041093204381824</v>
+      </c>
+      <c r="H3" s="124">
+        <v>48.910411566420713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="127">
+        <v>86.757982335487341</v>
+      </c>
+      <c r="D4" s="22">
+        <v>68.707993437082806</v>
+      </c>
+      <c r="E4" s="43">
+        <v>66.209528917493515</v>
+      </c>
+      <c r="F4" s="64">
+        <v>87.710522294022169</v>
+      </c>
+      <c r="G4" s="85">
+        <v>89.131837934007507</v>
+      </c>
+      <c r="H4" s="106">
+        <v>85.146878433204435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="143">
+        <v>86.601291245310648</v>
+      </c>
+      <c r="D5" s="19">
+        <v>68.726586446826246</v>
+      </c>
+      <c r="E5" s="40">
+        <v>79.112962338197832</v>
+      </c>
+      <c r="F5" s="61">
+        <v>90.013846717243794</v>
+      </c>
+      <c r="G5" s="82">
+        <v>90.284270048472152</v>
+      </c>
+      <c r="H5" s="103">
+        <v>79.172755242980756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="140">
+        <v>85.876878981075393</v>
+      </c>
+      <c r="D6" s="16">
+        <v>69.822512882175999</v>
+      </c>
+      <c r="E6" s="37">
+        <v>87.794340781494654</v>
+      </c>
+      <c r="F6" s="58">
+        <v>89.823285668561155</v>
+      </c>
+      <c r="G6" s="79">
+        <v>89.973529182778421</v>
+      </c>
+      <c r="H6" s="100">
+        <v>86.406139614817889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="137">
+        <v>85.865471731301028</v>
+      </c>
+      <c r="D7" s="13">
+        <v>70.760537144208286</v>
+      </c>
+      <c r="E7" s="34">
+        <v>91.520226530217968</v>
+      </c>
+      <c r="F7" s="55">
+        <v>89.87302658327495</v>
+      </c>
+      <c r="G7" s="76">
+        <v>90.252891460998782</v>
+      </c>
+      <c r="H7" s="97">
+        <v>82.563816872695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="134">
+        <v>86.221259122772125</v>
+      </c>
+      <c r="D8" s="9">
+        <v>78.519099069484454</v>
+      </c>
+      <c r="E8" s="31">
+        <v>90.847602487910791</v>
+      </c>
+      <c r="F8" s="52">
+        <v>89.76026320873595</v>
+      </c>
+      <c r="G8" s="73">
+        <v>87.660862118184411</v>
+      </c>
+      <c r="H8" s="94">
+        <v>80.199696075802265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="131">
+        <v>85.874133859289444</v>
+      </c>
+      <c r="D9" s="12">
+        <v>88.419052067924468</v>
+      </c>
+      <c r="E9" s="28">
+        <v>89.883205448720716</v>
+      </c>
+      <c r="F9" s="49">
+        <v>88.753028428734979</v>
+      </c>
+      <c r="G9" s="70">
+        <v>83.75024582104227</v>
+      </c>
+      <c r="H9" s="91">
+        <v>72.121817662782547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="128">
+        <v>86.574837729276766</v>
+      </c>
+      <c r="D10" s="6">
+        <v>86.660046078829978</v>
+      </c>
+      <c r="E10" s="25">
+        <v>86.461266965977231</v>
+      </c>
+      <c r="F10" s="46">
+        <v>82.724619878487999</v>
+      </c>
+      <c r="G10" s="67">
+        <v>76.230895884335794</v>
+      </c>
+      <c r="H10" s="88">
+        <v>70.016632208467783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1332,77 +2071,225 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="110">
+        <v>80.180843548242919</v>
+      </c>
+      <c r="D14" s="113">
+        <v>68.215716975637051</v>
+      </c>
+      <c r="E14" s="117">
+        <v>56.359708994022441</v>
+      </c>
+      <c r="F14" s="119">
+        <v>51.697292652473926</v>
+      </c>
+      <c r="G14" s="122">
+        <v>56.871962560229761</v>
+      </c>
+      <c r="H14" s="125">
+        <v>48.225013480508757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="146">
+        <v>79.809237104127206</v>
+      </c>
+      <c r="D15" s="23">
+        <v>68.314206870301646</v>
+      </c>
+      <c r="E15" s="44">
+        <v>64.67615925166595</v>
+      </c>
+      <c r="F15" s="65">
+        <v>85.160448331444599</v>
+      </c>
+      <c r="G15" s="86">
+        <v>84.337159779352177</v>
+      </c>
+      <c r="H15" s="107">
+        <v>80.680928612415926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="144">
+        <v>79.107379821624761</v>
+      </c>
+      <c r="D16" s="20">
+        <v>67.228741886463851</v>
+      </c>
+      <c r="E16" s="41">
+        <v>75.423322577761624</v>
+      </c>
+      <c r="F16" s="62">
+        <v>85.2021326597404</v>
+      </c>
+      <c r="G16" s="83">
+        <v>87.006957960997354</v>
+      </c>
+      <c r="H16" s="104">
+        <v>75.016623557873928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="141">
+        <v>79.614835191769259</v>
+      </c>
+      <c r="D17" s="17">
+        <v>67.732200682243501</v>
+      </c>
+      <c r="E17" s="38">
+        <v>84.559964474894514</v>
+      </c>
+      <c r="F17" s="59">
+        <v>87.935703019345596</v>
+      </c>
+      <c r="G17" s="80">
+        <v>87.046375833700978</v>
+      </c>
+      <c r="H17" s="101">
+        <v>82.507213153516332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="138">
+        <v>80.134862758328367</v>
+      </c>
+      <c r="D18" s="14">
+        <v>69.255725972254652</v>
+      </c>
+      <c r="E18" s="35">
+        <v>88.955613802887584</v>
+      </c>
+      <c r="F18" s="56">
+        <v>86.00859869030009</v>
+      </c>
+      <c r="G18" s="77">
+        <v>86.529814271749757</v>
+      </c>
+      <c r="H18" s="98">
+        <v>78.3108965763833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="135">
+        <v>79.178406964304756</v>
+      </c>
+      <c r="D19" s="10">
+        <v>78.004953906752377</v>
+      </c>
+      <c r="E19" s="32">
+        <v>87.726439386730576</v>
+      </c>
+      <c r="F19" s="53">
+        <v>86.549751007073311</v>
+      </c>
+      <c r="G19" s="74">
+        <v>83.818337528871353</v>
+      </c>
+      <c r="H19" s="95">
+        <v>74.987667136682276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="132">
+        <v>79.520699429349165</v>
+      </c>
+      <c r="D20" s="12">
+        <v>83.451667690320264</v>
+      </c>
+      <c r="E20" s="29">
+        <v>86.480961484672605</v>
+      </c>
+      <c r="F20" s="50">
+        <v>84.246824511169351</v>
+      </c>
+      <c r="G20" s="71">
+        <v>78.934033454730013</v>
+      </c>
+      <c r="H20" s="92">
+        <v>68.367540664999979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="129">
+        <v>79.458530494785151</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80.055969342295356</v>
+      </c>
+      <c r="E21" s="26">
+        <v>81.382924304420158</v>
+      </c>
+      <c r="F21" s="47">
+        <v>76.118836091431007</v>
+      </c>
+      <c r="G21" s="68">
+        <v>71.157351418841571</v>
+      </c>
+      <c r="H21" s="89">
+        <v>66.963901071808579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1414,90 +2301,346 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="111">
+        <v>60.23054986058127</v>
+      </c>
+      <c r="D25" s="114">
+        <v>60.416479958015778</v>
+      </c>
+      <c r="E25" s="116">
+        <v>54.277349573381542</v>
+      </c>
+      <c r="F25" s="120">
+        <v>51.582349328281389</v>
+      </c>
+      <c r="G25" s="123">
+        <v>55.345790188496451</v>
+      </c>
+      <c r="H25" s="126">
+        <v>45.947612003564039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="147">
+        <v>59.272721505664691</v>
+      </c>
+      <c r="D26" s="24">
+        <v>61.043284688160497</v>
+      </c>
+      <c r="E26" s="45">
+        <v>59.726047226475437</v>
+      </c>
+      <c r="F26" s="66">
+        <v>68.585351084351942</v>
+      </c>
+      <c r="G26" s="87">
+        <v>69.101145626980639</v>
+      </c>
+      <c r="H26" s="108">
+        <v>69.089680706580509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="145">
+        <v>59.537521950881931</v>
+      </c>
+      <c r="D27" s="21">
+        <v>60.529474015057787</v>
+      </c>
+      <c r="E27" s="42">
+        <v>62.891737817801193</v>
+      </c>
+      <c r="F27" s="63">
+        <v>68.035709651467585</v>
+      </c>
+      <c r="G27" s="84">
+        <v>74.350204874897997</v>
+      </c>
+      <c r="H27" s="105">
+        <v>68.32214811546811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="142">
+        <v>59.222317378754717</v>
+      </c>
+      <c r="D28" s="18">
+        <v>60.940227279936103</v>
+      </c>
+      <c r="E28" s="39">
+        <v>71.16702854984328</v>
+      </c>
+      <c r="F28" s="60">
+        <v>73.560232643304303</v>
+      </c>
+      <c r="G28" s="81">
+        <v>73.191192542034685</v>
+      </c>
+      <c r="H28" s="102">
+        <v>71.43954532478655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="139">
+        <v>59.071998892723983</v>
+      </c>
+      <c r="D29" s="15">
+        <v>61.287704334235883</v>
+      </c>
+      <c r="E29" s="36">
+        <v>75.141434326133151</v>
+      </c>
+      <c r="F29" s="57">
+        <v>74.745467809698468</v>
+      </c>
+      <c r="G29" s="78">
+        <v>74.646245498086756</v>
+      </c>
+      <c r="H29" s="99">
+        <v>69.358644970977267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="136">
+        <v>60.22901582193618</v>
+      </c>
+      <c r="D30" s="11">
+        <v>66.479946481659283</v>
+      </c>
+      <c r="E30" s="33">
+        <v>70.302747716964106</v>
+      </c>
+      <c r="F30" s="54">
+        <v>75.775799675314389</v>
+      </c>
+      <c r="G30" s="75">
+        <v>73.079628716511394</v>
+      </c>
+      <c r="H30" s="96">
+        <v>63.666675317260527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="133">
+        <v>59.411240581665922</v>
+      </c>
+      <c r="D31" s="12">
+        <v>65.367987612349594</v>
+      </c>
+      <c r="E31" s="30">
+        <v>73.601524811344973</v>
+      </c>
+      <c r="F31" s="51">
+        <v>69.175229312825664</v>
+      </c>
+      <c r="G31" s="72">
+        <v>67.353027852028703</v>
+      </c>
+      <c r="H31" s="93">
+        <v>61.277819588981451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
+      </c>
+      <c r="C32" s="130">
+        <v>59.563179612280393</v>
+      </c>
+      <c r="D32" s="8">
+        <v>63.308731044386192</v>
+      </c>
+      <c r="E32" s="27">
+        <v>65.630319754784495</v>
+      </c>
+      <c r="F32" s="48">
+        <v>65.236913814133331</v>
+      </c>
+      <c r="G32" s="69">
+        <v>62.823842190099683</v>
+      </c>
+      <c r="H32" s="90">
+        <v>56.423873332237591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G10">
+  <conditionalFormatting sqref="D3:H10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1509,31 +2652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="C14:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1545,56 +2664,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="C25:H32">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1611,15 +2682,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="126"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1631,167 +2705,208 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="157">
+        <v>93.539834542974702</v>
+      </c>
+      <c r="D4">
         <v>73.46378428879143</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4">
         <v>65.63470848940446</v>
       </c>
-      <c r="E4" s="30">
+      <c r="F4">
         <v>89.632989904756954</v>
       </c>
-      <c r="F4" s="39">
+      <c r="G4">
         <v>90.346242902908628</v>
       </c>
-      <c r="G4" s="48">
+      <c r="H4">
         <v>87.337087691069982</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="154">
+        <v>93.69913811249809</v>
+      </c>
+      <c r="D5">
         <v>73.964665207599836</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E5">
         <v>83.213776359080384</v>
       </c>
-      <c r="E5" s="27">
+      <c r="F5">
         <v>91.492913721860333</v>
       </c>
-      <c r="F5" s="36">
+      <c r="G5">
         <v>90.026303572406917</v>
       </c>
-      <c r="G5" s="45">
+      <c r="H5">
         <v>83.615273488524991</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="151">
+        <v>93.659806745733093</v>
+      </c>
+      <c r="D6">
         <v>74.589930132036912</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6">
         <v>89.770568949558367</v>
       </c>
-      <c r="E6" s="24">
+      <c r="F6">
         <v>91.250841270253204</v>
       </c>
-      <c r="F6" s="33">
+      <c r="G6">
         <v>91.042361958148419</v>
       </c>
-      <c r="G6" s="42">
+      <c r="H6">
         <v>87.152922314783581</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="148">
+        <v>93.394296951819072</v>
+      </c>
+      <c r="D7">
         <v>74.382604232447235</v>
       </c>
-      <c r="D7" s="54">
+      <c r="E7">
         <v>92.385493530797561</v>
       </c>
-      <c r="E7" s="53">
+      <c r="F7">
         <v>91.679495497365906</v>
       </c>
-      <c r="F7" s="52">
+      <c r="G7">
         <v>91.1780667076128</v>
       </c>
-      <c r="G7" s="51">
+      <c r="H7">
         <v>86.441393668342002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="164">
+        <v>93.506414415349596</v>
+      </c>
+      <c r="D8">
         <v>86.70483308679141</v>
       </c>
-      <c r="D8" s="68">
+      <c r="E8">
         <v>92.684365781710923</v>
       </c>
-      <c r="E8" s="67">
+      <c r="F8">
         <v>92.371716018304653</v>
       </c>
-      <c r="F8" s="66">
+      <c r="G8">
         <v>91.024789718480818</v>
       </c>
-      <c r="G8" s="70">
+      <c r="H8">
         <v>85.414475903770793</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="162">
+        <v>93.522135427930451</v>
+      </c>
+      <c r="D9">
         <v>93.941037552227939</v>
       </c>
-      <c r="D9" s="84">
+      <c r="E9">
         <v>93.183897207876655</v>
       </c>
-      <c r="E9" s="83">
+      <c r="F9">
         <v>91.966626008875494</v>
       </c>
-      <c r="F9" s="82">
+      <c r="G9">
         <v>89.806682295406262</v>
       </c>
-      <c r="G9" s="81">
+      <c r="H9">
         <v>81.964630605224386</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="160">
+        <v>93.67354965585055</v>
+      </c>
+      <c r="D10" s="169">
+        <v>93.250852804378354</v>
+      </c>
+      <c r="E10" s="172">
+        <v>91.162933935414657</v>
+      </c>
+      <c r="F10" s="175">
+        <v>87.199497112143419</v>
+      </c>
+      <c r="G10" s="178">
+        <v>82.806690946000103</v>
+      </c>
+      <c r="H10" s="181">
+        <v>76.162856080069886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1803,167 +2918,208 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="158">
+        <v>90.031603502913825</v>
+      </c>
+      <c r="D15">
         <v>71.854854569099501</v>
       </c>
-      <c r="D15" s="22">
+      <c r="E15">
         <v>66.707797356955226</v>
       </c>
-      <c r="E15" s="31">
+      <c r="F15">
         <v>89.841157795482658</v>
       </c>
-      <c r="F15" s="40">
+      <c r="G15">
         <v>90.594042047653232</v>
       </c>
-      <c r="G15" s="49">
+      <c r="H15">
         <v>87.21090436191777</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="155">
+        <v>89.601098048714391</v>
+      </c>
+      <c r="D16">
         <v>71.481725620463848</v>
       </c>
-      <c r="D16" s="19">
+      <c r="E16">
         <v>85.366678489144959</v>
       </c>
-      <c r="E16" s="28">
+      <c r="F16">
         <v>91.671629224012889</v>
       </c>
-      <c r="F16" s="37">
+      <c r="G16">
         <v>91.001179364296689</v>
       </c>
-      <c r="G16" s="46">
+      <c r="H16">
         <v>83.021727408253255</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="152">
+        <v>90.021805263597997</v>
+      </c>
+      <c r="D17">
         <v>71.150563586190174</v>
       </c>
-      <c r="D17" s="16">
+      <c r="E17">
         <v>90.456820560731487</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F17">
         <v>91.937081347301145</v>
       </c>
-      <c r="F17" s="34">
+      <c r="G17">
         <v>91.170165831884376</v>
       </c>
-      <c r="G17" s="43">
+      <c r="H17">
         <v>86.024377373506695</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="149">
+        <v>89.430098876287857</v>
+      </c>
+      <c r="D18">
         <v>73.085061289457514</v>
       </c>
-      <c r="D18" s="57">
+      <c r="E18">
         <v>91.659910552859444</v>
       </c>
-      <c r="E18" s="56">
+      <c r="F18">
         <v>91.120990089302964</v>
       </c>
-      <c r="F18" s="60">
+      <c r="G18">
         <v>91.490658800393319</v>
       </c>
-      <c r="G18" s="59">
+      <c r="H18">
         <v>86.588690213583178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="165">
+        <v>89.469141889924074</v>
+      </c>
+      <c r="D19">
         <v>83.01407451621553</v>
       </c>
-      <c r="D19" s="77">
+      <c r="E19">
         <v>92.025565388397254</v>
       </c>
-      <c r="E19" s="75">
+      <c r="F19">
         <v>91.610654071401996</v>
       </c>
-      <c r="F19" s="73">
+      <c r="G19">
         <v>89.882248116333187</v>
       </c>
-      <c r="G19" s="71">
+      <c r="H19">
         <v>82.399230673852415</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="163">
+        <v>89.878303445531543</v>
+      </c>
+      <c r="D20">
         <v>90.265578998664921</v>
       </c>
-      <c r="D20" s="89">
+      <c r="E20">
         <v>91.447394296951828</v>
       </c>
-      <c r="E20" s="88">
+      <c r="F20">
         <v>90.15567032010081</v>
       </c>
-      <c r="F20" s="87">
+      <c r="G20">
         <v>87.538548488020353</v>
       </c>
-      <c r="G20" s="86">
+      <c r="H20">
         <v>75.855004512726467</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="161">
+        <v>89.683532441168765</v>
+      </c>
+      <c r="D21" s="170">
+        <v>89.565584477374344</v>
+      </c>
+      <c r="E21" s="173">
+        <v>88.031989896106381</v>
+      </c>
+      <c r="F21" s="176">
+        <v>85.015989180990616</v>
+      </c>
+      <c r="G21" s="179">
+        <v>81.062973439793296</v>
+      </c>
+      <c r="H21" s="182">
+        <v>74.421341591766947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1975,180 +3131,329 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="159">
+        <v>88.507570711395999</v>
+      </c>
+      <c r="D26">
         <v>69.545053734605546</v>
       </c>
-      <c r="D26" s="23">
+      <c r="E26">
         <v>66.733051323973385</v>
       </c>
-      <c r="E26" s="32">
+      <c r="F26">
         <v>89.68180808945867</v>
       </c>
-      <c r="F26" s="41">
+      <c r="G26">
         <v>89.911585163654806</v>
       </c>
-      <c r="G26" s="50">
+      <c r="H26">
         <v>86.445661294647877</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="156">
+        <v>89.052217868089983</v>
+      </c>
+      <c r="D27">
         <v>70.159961014656986</v>
       </c>
-      <c r="D27" s="20">
+      <c r="E27">
         <v>83.752593015510513</v>
       </c>
-      <c r="E27" s="29">
+      <c r="F27">
         <v>90.359997347151207</v>
       </c>
-      <c r="F27" s="38">
+      <c r="G27">
         <v>90.246167066035753</v>
       </c>
-      <c r="G27" s="47">
+      <c r="H27">
         <v>81.721035649097317</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="153">
+        <v>88.519427792051246</v>
+      </c>
+      <c r="D28">
         <v>69.973702194655658</v>
       </c>
-      <c r="D28" s="17">
+      <c r="E28">
         <v>89.540814943612546</v>
       </c>
-      <c r="E28" s="26">
+      <c r="F28">
         <v>91.428253416263701</v>
       </c>
-      <c r="F28" s="35">
+      <c r="G28">
         <v>90.883081456875345</v>
       </c>
-      <c r="G28" s="44">
+      <c r="H28">
         <v>85.822622456364968</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="150">
+        <v>88.62364437985336</v>
+      </c>
+      <c r="D29">
         <v>71.127743319578897</v>
       </c>
-      <c r="D29" s="64">
+      <c r="E29">
         <v>92.066909460001099</v>
       </c>
-      <c r="E29" s="63">
+      <c r="F29">
         <v>90.759187651565597</v>
       </c>
-      <c r="F29" s="61">
+      <c r="G29">
         <v>91.622476549681821</v>
       </c>
-      <c r="G29" s="62">
+      <c r="H29">
         <v>85.360046367183102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="166">
+        <v>88.670853554096482</v>
+      </c>
+      <c r="D30">
         <v>79.835056243277748</v>
       </c>
-      <c r="D30" s="78">
+      <c r="E30">
         <v>91.254705202178812</v>
       </c>
-      <c r="E30" s="76">
+      <c r="F30">
         <v>90.727826365279995</v>
       </c>
-      <c r="F30" s="74">
+      <c r="G30">
         <v>88.637641040724105</v>
       </c>
-      <c r="G30" s="72">
+      <c r="H30">
         <v>82.277418778132457</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="95">
+      <c r="C31" s="167">
+        <v>88.991496466232405</v>
+      </c>
+      <c r="D31">
         <v>90.132394455546034</v>
       </c>
-      <c r="D31" s="94">
+      <c r="E31">
         <v>90.58802700138699</v>
       </c>
-      <c r="E31" s="93">
+      <c r="F31">
         <v>89.766185982000991</v>
       </c>
-      <c r="F31" s="92">
+      <c r="G31">
         <v>86.861985541974107</v>
       </c>
-      <c r="G31" s="91">
+      <c r="H31">
         <v>73.758383146336328</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32" s="168">
+        <v>89.038498026222825</v>
+      </c>
+      <c r="D32" s="171">
+        <v>88.411185794571466</v>
+      </c>
+      <c r="E32" s="174">
+        <v>88.285481131613025</v>
+      </c>
+      <c r="F32" s="177">
+        <v>83.988160220532478</v>
+      </c>
+      <c r="G32" s="180">
+        <v>78.952095894716493</v>
+      </c>
+      <c r="H32" s="183">
+        <v>72.207810332846023</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G10">
+  <conditionalFormatting sqref="D3:H10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2160,31 +3465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="C15:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2196,56 +3477,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="C4:H10">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\plv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F01D7-4D0F-4086-ABDC-23141D89C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07993F-9476-46C7-9B6F-5073E8FC57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,166 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -576,13 +416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -594,77 +434,235 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="23">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="23">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="23">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="23">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="23">
+        <v>93.223217040516474</v>
+      </c>
+      <c r="D3" s="23">
+        <v>74.130324080081436</v>
+      </c>
+      <c r="E3" s="23">
+        <v>57.526754845053453</v>
+      </c>
+      <c r="F3" s="23">
+        <v>51.660694873369742</v>
+      </c>
+      <c r="G3" s="23">
+        <v>57.305697569471477</v>
+      </c>
+      <c r="H3" s="23">
+        <v>49.385819369833072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="23">
+        <v>93.539834542974702</v>
+      </c>
+      <c r="D4" s="23">
+        <v>73.46378428879143</v>
+      </c>
+      <c r="E4" s="23">
+        <v>65.63470848940446</v>
+      </c>
+      <c r="F4" s="23">
+        <v>89.632989904756954</v>
+      </c>
+      <c r="G4" s="23">
+        <v>90.346242902908628</v>
+      </c>
+      <c r="H4" s="23">
+        <v>87.337087691069982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="23">
+        <v>93.69913811249809</v>
+      </c>
+      <c r="D5" s="23">
+        <v>73.964665207599836</v>
+      </c>
+      <c r="E5" s="23">
+        <v>83.213776359080384</v>
+      </c>
+      <c r="F5" s="23">
+        <v>91.492913721860333</v>
+      </c>
+      <c r="G5" s="23">
+        <v>90.026303572406917</v>
+      </c>
+      <c r="H5" s="23">
+        <v>83.615273488524991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="23">
+        <v>93.659806745733093</v>
+      </c>
+      <c r="D6" s="23">
+        <v>74.589930132036912</v>
+      </c>
+      <c r="E6" s="23">
+        <v>89.770568949558367</v>
+      </c>
+      <c r="F6" s="23">
+        <v>91.250841270253204</v>
+      </c>
+      <c r="G6" s="23">
+        <v>91.042361958148419</v>
+      </c>
+      <c r="H6" s="23">
+        <v>87.152922314783581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7">
+      <c r="B7" s="23">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="23">
+        <v>93.394296951819072</v>
+      </c>
+      <c r="D7" s="23">
+        <v>74.382604232447235</v>
+      </c>
+      <c r="E7" s="23">
+        <v>92.385493530797561</v>
+      </c>
+      <c r="F7" s="23">
+        <v>91.679495497365906</v>
+      </c>
+      <c r="G7" s="23">
+        <v>91.1780667076128</v>
+      </c>
+      <c r="H7" s="23">
+        <v>86.441393668342002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8">
+      <c r="B8" s="23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="23">
+        <v>93.506414415349596</v>
+      </c>
+      <c r="D8" s="23">
+        <v>86.70483308679141</v>
+      </c>
+      <c r="E8" s="23">
+        <v>92.684365781710923</v>
+      </c>
+      <c r="F8" s="23">
+        <v>92.371716018304653</v>
+      </c>
+      <c r="G8" s="23">
+        <v>91.024789718480818</v>
+      </c>
+      <c r="H8" s="23">
+        <v>85.414475903770793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9">
+      <c r="B9" s="23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="23">
+        <v>93.522135427930451</v>
+      </c>
+      <c r="D9" s="23">
+        <v>93.941037552227939</v>
+      </c>
+      <c r="E9" s="23">
+        <v>93.183897207876655</v>
+      </c>
+      <c r="F9" s="23">
+        <v>91.966626008875494</v>
+      </c>
+      <c r="G9" s="23">
+        <v>89.806682295406262</v>
+      </c>
+      <c r="H9" s="23">
+        <v>81.964630605224386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10">
+      <c r="B10" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="23">
+        <v>93.67354965585055</v>
+      </c>
+      <c r="D10" s="23">
+        <v>93.250852804378354</v>
+      </c>
+      <c r="E10" s="23">
+        <v>91.162933935414657</v>
+      </c>
+      <c r="F10" s="23">
+        <v>87.199497112143419</v>
+      </c>
+      <c r="G10" s="23">
+        <v>82.806690946000103</v>
+      </c>
+      <c r="H10" s="23">
+        <v>76.162856080069886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -676,77 +674,235 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="23">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="23">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="23">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="23">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="23">
+        <v>89.811417053780744</v>
+      </c>
+      <c r="D14" s="23">
+        <v>71.269117091555017</v>
+      </c>
+      <c r="E14" s="23">
+        <v>57.708532657433587</v>
+      </c>
+      <c r="F14" s="23">
+        <v>52.338791858061057</v>
+      </c>
+      <c r="G14" s="23">
+        <v>56.960988705207953</v>
+      </c>
+      <c r="H14" s="23">
+        <v>48.744983376442129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="23">
+        <v>90.031603502913825</v>
+      </c>
+      <c r="D15" s="23">
+        <v>71.854854569099501</v>
+      </c>
+      <c r="E15" s="23">
+        <v>66.707797356955226</v>
+      </c>
+      <c r="F15" s="23">
+        <v>89.841157795482658</v>
+      </c>
+      <c r="G15" s="23">
+        <v>90.594042047653232</v>
+      </c>
+      <c r="H15" s="23">
+        <v>87.21090436191777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="23">
+        <v>89.601098048714391</v>
+      </c>
+      <c r="D16" s="23">
+        <v>71.481725620463848</v>
+      </c>
+      <c r="E16" s="23">
+        <v>85.366678489144959</v>
+      </c>
+      <c r="F16" s="23">
+        <v>91.671629224012889</v>
+      </c>
+      <c r="G16" s="23">
+        <v>91.001179364296689</v>
+      </c>
+      <c r="H16" s="23">
+        <v>83.021727408253255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="23">
+        <v>90.021805263597997</v>
+      </c>
+      <c r="D17" s="23">
+        <v>71.150563586190174</v>
+      </c>
+      <c r="E17" s="23">
+        <v>90.456820560731487</v>
+      </c>
+      <c r="F17" s="23">
+        <v>91.937081347301145</v>
+      </c>
+      <c r="G17" s="23">
+        <v>91.170165831884376</v>
+      </c>
+      <c r="H17" s="23">
+        <v>86.024377373506695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18">
+      <c r="B18" s="23">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="23">
+        <v>89.430098876287857</v>
+      </c>
+      <c r="D18" s="23">
+        <v>73.085061289457514</v>
+      </c>
+      <c r="E18" s="23">
+        <v>91.659910552859444</v>
+      </c>
+      <c r="F18" s="23">
+        <v>91.120990089302964</v>
+      </c>
+      <c r="G18" s="23">
+        <v>91.490658800393319</v>
+      </c>
+      <c r="H18" s="23">
+        <v>86.588690213583178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19">
+      <c r="B19" s="23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="23">
+        <v>89.469141889924074</v>
+      </c>
+      <c r="D19" s="23">
+        <v>83.01407451621553</v>
+      </c>
+      <c r="E19" s="23">
+        <v>92.025565388397254</v>
+      </c>
+      <c r="F19" s="23">
+        <v>91.610654071401996</v>
+      </c>
+      <c r="G19" s="23">
+        <v>89.882248116333187</v>
+      </c>
+      <c r="H19" s="23">
+        <v>82.399230673852415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20">
+      <c r="B20" s="23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="23">
+        <v>89.878303445531543</v>
+      </c>
+      <c r="D20" s="23">
+        <v>90.265578998664921</v>
+      </c>
+      <c r="E20" s="23">
+        <v>91.447394296951828</v>
+      </c>
+      <c r="F20" s="23">
+        <v>90.15567032010081</v>
+      </c>
+      <c r="G20" s="23">
+        <v>87.538548488020353</v>
+      </c>
+      <c r="H20" s="23">
+        <v>75.855004512726467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21">
+      <c r="B21" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="23">
+        <v>89.683532441168765</v>
+      </c>
+      <c r="D21" s="23">
+        <v>89.565584477374344</v>
+      </c>
+      <c r="E21" s="23">
+        <v>88.031989896106381</v>
+      </c>
+      <c r="F21" s="23">
+        <v>85.015989180990616</v>
+      </c>
+      <c r="G21" s="23">
+        <v>81.062973439793296</v>
+      </c>
+      <c r="H21" s="23">
+        <v>74.421341591766947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -758,74 +914,222 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="23">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="23">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="23">
         <v>0.15</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="23">
         <v>0.2</v>
       </c>
-      <c r="G24">
+      <c r="H24" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="23">
+        <v>89.074103870564031</v>
+      </c>
+      <c r="D25" s="23">
+        <v>70.725854029879159</v>
+      </c>
+      <c r="E25" s="23">
+        <v>57.619304665265282</v>
+      </c>
+      <c r="F25" s="23">
+        <v>52.227695164606388</v>
+      </c>
+      <c r="G25" s="23">
+        <v>56.659071445254718</v>
+      </c>
+      <c r="H25" s="23">
+        <v>48.852048893156507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="23">
+        <v>88.507570711395999</v>
+      </c>
+      <c r="D26" s="23">
+        <v>69.545053734605546</v>
+      </c>
+      <c r="E26" s="23">
+        <v>66.733051323973385</v>
+      </c>
+      <c r="F26" s="23">
+        <v>89.68180808945867</v>
+      </c>
+      <c r="G26" s="23">
+        <v>89.911585163654806</v>
+      </c>
+      <c r="H26" s="23">
+        <v>86.445661294647877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="23">
+        <v>89.052217868089983</v>
+      </c>
+      <c r="D27" s="23">
+        <v>70.159961014656986</v>
+      </c>
+      <c r="E27" s="23">
+        <v>83.752593015510513</v>
+      </c>
+      <c r="F27" s="23">
+        <v>90.359997347151207</v>
+      </c>
+      <c r="G27" s="23">
+        <v>90.246167066035753</v>
+      </c>
+      <c r="H27" s="23">
+        <v>81.721035649097317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="23">
+        <v>88.519427792051246</v>
+      </c>
+      <c r="D28" s="23">
+        <v>69.973702194655658</v>
+      </c>
+      <c r="E28" s="23">
+        <v>89.540814943612546</v>
+      </c>
+      <c r="F28" s="23">
+        <v>91.428253416263701</v>
+      </c>
+      <c r="G28" s="23">
+        <v>90.883081456875345</v>
+      </c>
+      <c r="H28" s="23">
+        <v>85.822622456364968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29">
+      <c r="B29" s="23">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="23">
+        <v>88.62364437985336</v>
+      </c>
+      <c r="D29" s="23">
+        <v>71.127743319578897</v>
+      </c>
+      <c r="E29" s="23">
+        <v>92.066909460001099</v>
+      </c>
+      <c r="F29" s="23">
+        <v>90.759187651565597</v>
+      </c>
+      <c r="G29" s="23">
+        <v>91.622476549681821</v>
+      </c>
+      <c r="H29" s="23">
+        <v>85.360046367183102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30">
+      <c r="B30" s="23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="23">
+        <v>88.670853554096482</v>
+      </c>
+      <c r="D30" s="23">
+        <v>79.835056243277748</v>
+      </c>
+      <c r="E30" s="23">
+        <v>91.254705202178812</v>
+      </c>
+      <c r="F30" s="23">
+        <v>90.727826365279995</v>
+      </c>
+      <c r="G30" s="23">
+        <v>88.637641040724105</v>
+      </c>
+      <c r="H30" s="23">
+        <v>82.277418778132457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31">
+      <c r="B31" s="23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="23">
+        <v>88.991496466232405</v>
+      </c>
+      <c r="D31" s="23">
+        <v>90.132394455546034</v>
+      </c>
+      <c r="E31" s="23">
+        <v>90.58802700138699</v>
+      </c>
+      <c r="F31" s="23">
+        <v>89.766185982000991</v>
+      </c>
+      <c r="G31" s="23">
+        <v>86.861985541974107</v>
+      </c>
+      <c r="H31" s="23">
+        <v>73.758383146336328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32">
+      <c r="B32" s="23">
         <v>1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>89.038498026222825</v>
+      </c>
+      <c r="D32" s="23">
+        <v>88.411185794571466</v>
+      </c>
+      <c r="E32" s="23">
+        <v>88.285481131613025</v>
+      </c>
+      <c r="F32" s="23">
+        <v>83.988160220532478</v>
+      </c>
+      <c r="G32" s="23">
+        <v>78.952095894716493</v>
+      </c>
+      <c r="H32" s="23">
+        <v>72.207810332846023</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -848,19 +1152,19 @@
       <c r="C35" s="1">
         <v>0.01</v>
       </c>
-      <c r="D35" s="166">
+      <c r="D35">
         <v>0.05</v>
       </c>
-      <c r="E35" s="166">
+      <c r="E35">
         <v>0.1</v>
       </c>
-      <c r="F35" s="166">
+      <c r="F35">
         <v>0.15</v>
       </c>
-      <c r="G35" s="166">
+      <c r="G35">
         <v>0.2</v>
       </c>
-      <c r="H35" s="166">
+      <c r="H35">
         <v>0.3</v>
       </c>
     </row>
@@ -871,22 +1175,22 @@
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="166">
+      <c r="C36">
         <v>86.653846486561307</v>
       </c>
-      <c r="D36" s="166">
+      <c r="D36">
         <v>68.538851258805579</v>
       </c>
-      <c r="E36" s="166">
+      <c r="E36">
         <v>56.399121099663503</v>
       </c>
-      <c r="F36" s="166">
+      <c r="F36">
         <v>52.083178343526598</v>
       </c>
-      <c r="G36" s="166">
+      <c r="G36">
         <v>57.041093204381824</v>
       </c>
-      <c r="H36" s="166">
+      <c r="H36">
         <v>48.910411566420713</v>
       </c>
     </row>
@@ -895,22 +1199,22 @@
       <c r="B37" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C37" s="166">
+      <c r="C37">
         <v>86.757982335487341</v>
       </c>
-      <c r="D37" s="166">
+      <c r="D37">
         <v>68.707993437082806</v>
       </c>
-      <c r="E37" s="166">
+      <c r="E37">
         <v>66.209528917493515</v>
       </c>
-      <c r="F37" s="166">
+      <c r="F37">
         <v>87.710522294022169</v>
       </c>
-      <c r="G37" s="166">
+      <c r="G37">
         <v>89.131837934007507</v>
       </c>
-      <c r="H37" s="166">
+      <c r="H37">
         <v>85.146878433204435</v>
       </c>
     </row>
@@ -919,22 +1223,22 @@
       <c r="B38" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C38" s="166">
+      <c r="C38">
         <v>86.601291245310648</v>
       </c>
-      <c r="D38" s="166">
+      <c r="D38">
         <v>68.726586446826246</v>
       </c>
-      <c r="E38" s="166">
+      <c r="E38">
         <v>79.112962338197832</v>
       </c>
-      <c r="F38" s="166">
+      <c r="F38">
         <v>90.013846717243794</v>
       </c>
-      <c r="G38" s="166">
+      <c r="G38">
         <v>90.284270048472152</v>
       </c>
-      <c r="H38" s="166">
+      <c r="H38">
         <v>79.172755242980756</v>
       </c>
     </row>
@@ -943,130 +1247,120 @@
       <c r="B39" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C39" s="166">
+      <c r="C39">
         <v>85.876878981075393</v>
       </c>
-      <c r="D39" s="166">
+      <c r="D39">
         <v>69.822512882175999</v>
       </c>
-      <c r="E39" s="166">
+      <c r="E39">
         <v>87.794340781494654</v>
       </c>
-      <c r="F39" s="166">
+      <c r="F39">
         <v>89.823285668561155</v>
       </c>
-      <c r="G39" s="166">
+      <c r="G39">
         <v>89.973529182778421</v>
       </c>
-      <c r="H39" s="166">
+      <c r="H39">
         <v>86.406139614817889</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="166">
+      <c r="B40">
         <v>1E-3</v>
       </c>
-      <c r="C40" s="166">
+      <c r="C40">
         <v>85.865471731301028</v>
       </c>
-      <c r="D40" s="166">
+      <c r="D40">
         <v>70.760537144208286</v>
       </c>
-      <c r="E40" s="166">
+      <c r="E40">
         <v>91.520226530217968</v>
       </c>
-      <c r="F40" s="166">
+      <c r="F40">
         <v>89.87302658327495</v>
       </c>
-      <c r="G40" s="166">
+      <c r="G40">
         <v>90.252891460998782</v>
       </c>
-      <c r="H40" s="166">
+      <c r="H40">
         <v>82.563816872695</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="166">
+      <c r="B41">
         <v>0.01</v>
       </c>
-      <c r="C41" s="166">
+      <c r="C41">
         <v>86.221259122772125</v>
       </c>
-      <c r="D41" s="166">
+      <c r="D41">
         <v>78.519099069484454</v>
       </c>
-      <c r="E41" s="166">
+      <c r="E41">
         <v>90.847602487910791</v>
       </c>
-      <c r="F41" s="166">
+      <c r="F41">
         <v>89.76026320873595</v>
       </c>
-      <c r="G41" s="166">
+      <c r="G41">
         <v>87.660862118184411</v>
       </c>
-      <c r="H41" s="166">
+      <c r="H41">
         <v>80.199696075802265</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="166">
+      <c r="B42">
         <v>0.1</v>
       </c>
-      <c r="C42" s="166">
+      <c r="C42">
         <v>85.874133859289444</v>
       </c>
-      <c r="D42" s="166">
+      <c r="D42">
         <v>88.419052067924468</v>
       </c>
-      <c r="E42" s="166">
+      <c r="E42">
         <v>89.883205448720716</v>
       </c>
-      <c r="F42" s="166">
+      <c r="F42">
         <v>88.753028428734979</v>
       </c>
-      <c r="G42" s="166">
+      <c r="G42">
         <v>83.75024582104227</v>
       </c>
-      <c r="H42" s="166">
+      <c r="H42">
         <v>72.121817662782547</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="166">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="166">
+      <c r="C43">
         <v>86.574837729276766</v>
       </c>
-      <c r="D43" s="166">
+      <c r="D43">
         <v>86.660046078829978</v>
       </c>
-      <c r="E43" s="166">
+      <c r="E43">
         <v>86.461266965977231</v>
       </c>
-      <c r="F43" s="166">
+      <c r="F43">
         <v>82.724619878487999</v>
       </c>
-      <c r="G43" s="166">
+      <c r="G43">
         <v>76.230895884335794</v>
       </c>
-      <c r="H43" s="166">
+      <c r="H43">
         <v>70.016632208467783</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="166"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -1088,19 +1382,19 @@
       <c r="C46" s="1">
         <v>0.01</v>
       </c>
-      <c r="D46" s="166">
+      <c r="D46">
         <v>0.05</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46">
         <v>0.1</v>
       </c>
-      <c r="F46" s="166">
+      <c r="F46">
         <v>0.15</v>
       </c>
-      <c r="G46" s="166">
+      <c r="G46">
         <v>0.2</v>
       </c>
-      <c r="H46" s="166">
+      <c r="H46">
         <v>0.3</v>
       </c>
     </row>
@@ -1111,22 +1405,22 @@
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="166">
+      <c r="C47">
         <v>80.180843548242919</v>
       </c>
-      <c r="D47" s="166">
+      <c r="D47">
         <v>68.215716975637051</v>
       </c>
-      <c r="E47" s="166">
+      <c r="E47">
         <v>56.359708994022441</v>
       </c>
-      <c r="F47" s="166">
+      <c r="F47">
         <v>51.697292652473926</v>
       </c>
-      <c r="G47" s="166">
+      <c r="G47">
         <v>56.871962560229761</v>
       </c>
-      <c r="H47" s="166">
+      <c r="H47">
         <v>48.225013480508757</v>
       </c>
     </row>
@@ -1135,22 +1429,22 @@
       <c r="B48" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C48" s="166">
+      <c r="C48">
         <v>79.809237104127206</v>
       </c>
-      <c r="D48" s="166">
+      <c r="D48">
         <v>68.314206870301646</v>
       </c>
-      <c r="E48" s="166">
+      <c r="E48">
         <v>64.67615925166595</v>
       </c>
-      <c r="F48" s="166">
+      <c r="F48">
         <v>85.160448331444599</v>
       </c>
-      <c r="G48" s="166">
+      <c r="G48">
         <v>84.337159779352177</v>
       </c>
-      <c r="H48" s="166">
+      <c r="H48">
         <v>80.680928612415926</v>
       </c>
     </row>
@@ -1159,22 +1453,22 @@
       <c r="B49" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C49" s="166">
+      <c r="C49">
         <v>79.107379821624761</v>
       </c>
-      <c r="D49" s="166">
+      <c r="D49">
         <v>67.228741886463851</v>
       </c>
-      <c r="E49" s="166">
+      <c r="E49">
         <v>75.423322577761624</v>
       </c>
-      <c r="F49" s="166">
+      <c r="F49">
         <v>85.2021326597404</v>
       </c>
-      <c r="G49" s="166">
+      <c r="G49">
         <v>87.006957960997354</v>
       </c>
-      <c r="H49" s="166">
+      <c r="H49">
         <v>75.016623557873928</v>
       </c>
     </row>
@@ -1183,130 +1477,120 @@
       <c r="B50" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C50" s="166">
+      <c r="C50">
         <v>79.614835191769259</v>
       </c>
-      <c r="D50" s="166">
+      <c r="D50">
         <v>67.732200682243501</v>
       </c>
-      <c r="E50" s="166">
+      <c r="E50">
         <v>84.559964474894514</v>
       </c>
-      <c r="F50" s="166">
+      <c r="F50">
         <v>87.935703019345596</v>
       </c>
-      <c r="G50" s="166">
+      <c r="G50">
         <v>87.046375833700978</v>
       </c>
-      <c r="H50" s="166">
+      <c r="H50">
         <v>82.507213153516332</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="166">
+      <c r="B51">
         <v>1E-3</v>
       </c>
-      <c r="C51" s="166">
+      <c r="C51">
         <v>80.134862758328367</v>
       </c>
-      <c r="D51" s="166">
+      <c r="D51">
         <v>69.255725972254652</v>
       </c>
-      <c r="E51" s="166">
+      <c r="E51">
         <v>88.955613802887584</v>
       </c>
-      <c r="F51" s="166">
+      <c r="F51">
         <v>86.00859869030009</v>
       </c>
-      <c r="G51" s="166">
+      <c r="G51">
         <v>86.529814271749757</v>
       </c>
-      <c r="H51" s="166">
+      <c r="H51">
         <v>78.3108965763833</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="166">
+      <c r="B52">
         <v>0.01</v>
       </c>
-      <c r="C52" s="166">
+      <c r="C52">
         <v>79.178406964304756</v>
       </c>
-      <c r="D52" s="166">
+      <c r="D52">
         <v>78.004953906752377</v>
       </c>
-      <c r="E52" s="166">
+      <c r="E52">
         <v>87.726439386730576</v>
       </c>
-      <c r="F52" s="166">
+      <c r="F52">
         <v>86.549751007073311</v>
       </c>
-      <c r="G52" s="166">
+      <c r="G52">
         <v>83.818337528871353</v>
       </c>
-      <c r="H52" s="166">
+      <c r="H52">
         <v>74.987667136682276</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="166">
+      <c r="B53">
         <v>0.1</v>
       </c>
-      <c r="C53" s="166">
+      <c r="C53">
         <v>79.520699429349165</v>
       </c>
-      <c r="D53" s="166">
+      <c r="D53">
         <v>83.451667690320264</v>
       </c>
-      <c r="E53" s="166">
+      <c r="E53">
         <v>86.480961484672605</v>
       </c>
-      <c r="F53" s="166">
+      <c r="F53">
         <v>84.246824511169351</v>
       </c>
-      <c r="G53" s="166">
+      <c r="G53">
         <v>78.934033454730013</v>
       </c>
-      <c r="H53" s="166">
+      <c r="H53">
         <v>68.367540664999979</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="166">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="166">
+      <c r="C54">
         <v>79.458530494785151</v>
       </c>
-      <c r="D54" s="166">
+      <c r="D54">
         <v>80.055969342295356</v>
       </c>
-      <c r="E54" s="166">
+      <c r="E54">
         <v>81.382924304420158</v>
       </c>
-      <c r="F54" s="166">
+      <c r="F54">
         <v>76.118836091431007</v>
       </c>
-      <c r="G54" s="166">
+      <c r="G54">
         <v>71.157351418841571</v>
       </c>
-      <c r="H54" s="166">
+      <c r="H54">
         <v>66.963901071808579</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1328,19 +1612,19 @@
       <c r="C57" s="1">
         <v>0.01</v>
       </c>
-      <c r="D57" s="166">
+      <c r="D57">
         <v>0.05</v>
       </c>
-      <c r="E57" s="166">
+      <c r="E57">
         <v>0.1</v>
       </c>
-      <c r="F57" s="166">
+      <c r="F57">
         <v>0.15</v>
       </c>
-      <c r="G57" s="166">
+      <c r="G57">
         <v>0.2</v>
       </c>
-      <c r="H57" s="166">
+      <c r="H57">
         <v>0.3</v>
       </c>
     </row>
@@ -1351,22 +1635,22 @@
       <c r="B58" s="1">
         <v>0</v>
       </c>
-      <c r="C58" s="166">
+      <c r="C58">
         <v>60.23054986058127</v>
       </c>
-      <c r="D58" s="166">
+      <c r="D58">
         <v>60.416479958015778</v>
       </c>
-      <c r="E58" s="166">
+      <c r="E58">
         <v>54.277349573381542</v>
       </c>
-      <c r="F58" s="166">
+      <c r="F58">
         <v>51.582349328281389</v>
       </c>
-      <c r="G58" s="166">
+      <c r="G58">
         <v>55.345790188496451</v>
       </c>
-      <c r="H58" s="166">
+      <c r="H58">
         <v>45.947612003564039</v>
       </c>
     </row>
@@ -1375,22 +1659,22 @@
       <c r="B59" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C59" s="166">
+      <c r="C59">
         <v>59.272721505664691</v>
       </c>
-      <c r="D59" s="166">
+      <c r="D59">
         <v>61.043284688160497</v>
       </c>
-      <c r="E59" s="166">
+      <c r="E59">
         <v>59.726047226475437</v>
       </c>
-      <c r="F59" s="166">
+      <c r="F59">
         <v>68.585351084351942</v>
       </c>
-      <c r="G59" s="166">
+      <c r="G59">
         <v>69.101145626980639</v>
       </c>
-      <c r="H59" s="166">
+      <c r="H59">
         <v>69.089680706580509</v>
       </c>
     </row>
@@ -1399,22 +1683,22 @@
       <c r="B60" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C60" s="166">
+      <c r="C60">
         <v>59.537521950881931</v>
       </c>
-      <c r="D60" s="166">
+      <c r="D60">
         <v>60.529474015057787</v>
       </c>
-      <c r="E60" s="166">
+      <c r="E60">
         <v>62.891737817801193</v>
       </c>
-      <c r="F60" s="166">
+      <c r="F60">
         <v>68.035709651467585</v>
       </c>
-      <c r="G60" s="166">
+      <c r="G60">
         <v>74.350204874897997</v>
       </c>
-      <c r="H60" s="166">
+      <c r="H60">
         <v>68.32214811546811</v>
       </c>
     </row>
@@ -1423,126 +1707,131 @@
       <c r="B61" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C61" s="166">
+      <c r="C61">
         <v>59.222317378754717</v>
       </c>
-      <c r="D61" s="166">
+      <c r="D61">
         <v>60.940227279936103</v>
       </c>
-      <c r="E61" s="166">
+      <c r="E61">
         <v>71.16702854984328</v>
       </c>
-      <c r="F61" s="166">
+      <c r="F61">
         <v>73.560232643304303</v>
       </c>
-      <c r="G61" s="166">
+      <c r="G61">
         <v>73.191192542034685</v>
       </c>
-      <c r="H61" s="166">
+      <c r="H61">
         <v>71.43954532478655</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="166">
+      <c r="B62">
         <v>1E-3</v>
       </c>
-      <c r="C62" s="166">
+      <c r="C62">
         <v>59.071998892723983</v>
       </c>
-      <c r="D62" s="166">
+      <c r="D62">
         <v>61.287704334235883</v>
       </c>
-      <c r="E62" s="166">
+      <c r="E62">
         <v>75.141434326133151</v>
       </c>
-      <c r="F62" s="166">
+      <c r="F62">
         <v>74.745467809698468</v>
       </c>
-      <c r="G62" s="166">
+      <c r="G62">
         <v>74.646245498086756</v>
       </c>
-      <c r="H62" s="166">
+      <c r="H62">
         <v>69.358644970977267</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="166">
+      <c r="B63">
         <v>0.01</v>
       </c>
-      <c r="C63" s="166">
+      <c r="C63">
         <v>60.22901582193618</v>
       </c>
-      <c r="D63" s="166">
+      <c r="D63">
         <v>66.479946481659283</v>
       </c>
-      <c r="E63" s="166">
+      <c r="E63">
         <v>70.302747716964106</v>
       </c>
-      <c r="F63" s="166">
+      <c r="F63">
         <v>75.775799675314389</v>
       </c>
-      <c r="G63" s="166">
+      <c r="G63">
         <v>73.079628716511394</v>
       </c>
-      <c r="H63" s="166">
+      <c r="H63">
         <v>63.666675317260527</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="166">
+      <c r="B64">
         <v>0.1</v>
       </c>
-      <c r="C64" s="166">
+      <c r="C64">
         <v>59.411240581665922</v>
       </c>
-      <c r="D64" s="166">
+      <c r="D64">
         <v>65.367987612349594</v>
       </c>
-      <c r="E64" s="166">
+      <c r="E64">
         <v>73.601524811344973</v>
       </c>
-      <c r="F64" s="166">
+      <c r="F64">
         <v>69.175229312825664</v>
       </c>
-      <c r="G64" s="166">
+      <c r="G64">
         <v>67.353027852028703</v>
       </c>
-      <c r="H64" s="166">
+      <c r="H64">
         <v>61.277819588981451</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="166">
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="166">
+      <c r="C65">
         <v>59.563179612280393</v>
       </c>
-      <c r="D65" s="166">
+      <c r="D65">
         <v>63.308731044386192</v>
       </c>
-      <c r="E65" s="166">
+      <c r="E65">
         <v>65.630319754784495</v>
       </c>
-      <c r="F65" s="166">
+      <c r="F65">
         <v>65.236913814133331</v>
       </c>
-      <c r="G65" s="166">
+      <c r="G65">
         <v>62.823842190099683</v>
       </c>
-      <c r="H65" s="166">
+      <c r="H65">
         <v>56.423873332237591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="A36:A43"/>
@@ -1552,15 +1841,70 @@
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C56:H56"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G10">
+  <conditionalFormatting sqref="C36:H43">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:H54">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:H65">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:H43">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:H43">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H43">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -1572,31 +1916,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="D47:H54">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H54">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:H54">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1608,31 +1952,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="D58:H65">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:H65">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:H65">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1644,31 +1988,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:H43">
+  <conditionalFormatting sqref="C4:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1680,7 +2036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:H43">
+  <conditionalFormatting sqref="D4:H10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1692,7 +2048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:H43">
+  <conditionalFormatting sqref="D6:H10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1704,7 +2060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:H54">
+  <conditionalFormatting sqref="D14:H21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1716,7 +2072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:H54">
+  <conditionalFormatting sqref="D15:H21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1728,7 +2084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:H54">
+  <conditionalFormatting sqref="D17:H21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1740,7 +2096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:H65">
+  <conditionalFormatting sqref="D25:H32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1752,7 +2108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:H65">
+  <conditionalFormatting sqref="D26:H32">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1764,44 +2120,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:H65">
+  <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:H43">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:H54">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:H65">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1825,9 +2145,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9" style="108"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -1872,22 +2189,22 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="109">
+      <c r="C3">
         <v>86.653846486561307</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3">
         <v>68.538851258805579</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3">
         <v>56.399121099663503</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3">
         <v>52.083178343526598</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3">
         <v>57.041093204381824</v>
       </c>
-      <c r="H3" s="124">
+      <c r="H3">
         <v>48.910411566420713</v>
       </c>
     </row>
@@ -1896,22 +2213,22 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4">
         <v>86.757982335487341</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4">
         <v>68.707993437082806</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4">
         <v>66.209528917493515</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4">
         <v>87.710522294022169</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4">
         <v>89.131837934007507</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4">
         <v>85.146878433204435</v>
       </c>
     </row>
@@ -1920,22 +2237,22 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5">
         <v>86.601291245310648</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>68.726586446826246</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5">
         <v>79.112962338197832</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5">
         <v>90.013846717243794</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5">
         <v>90.284270048472152</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5">
         <v>79.172755242980756</v>
       </c>
     </row>
@@ -1944,22 +2261,22 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6">
         <v>85.876878981075393</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>69.822512882175999</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6">
         <v>87.794340781494654</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6">
         <v>89.823285668561155</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6">
         <v>89.973529182778421</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6">
         <v>86.406139614817889</v>
       </c>
     </row>
@@ -1968,22 +2285,22 @@
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="137">
+      <c r="C7">
         <v>85.865471731301028</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>70.760537144208286</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7">
         <v>91.520226530217968</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7">
         <v>89.87302658327495</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7">
         <v>90.252891460998782</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7">
         <v>82.563816872695</v>
       </c>
     </row>
@@ -1992,22 +2309,22 @@
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8">
         <v>86.221259122772125</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>78.519099069484454</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8">
         <v>90.847602487910791</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8">
         <v>89.76026320873595</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8">
         <v>87.660862118184411</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8">
         <v>80.199696075802265</v>
       </c>
     </row>
@@ -2016,22 +2333,22 @@
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9">
         <v>85.874133859289444</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>88.419052067924468</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9">
         <v>89.883205448720716</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9">
         <v>88.753028428734979</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9">
         <v>83.75024582104227</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9">
         <v>72.121817662782547</v>
       </c>
     </row>
@@ -2040,22 +2357,22 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10">
         <v>86.574837729276766</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>86.660046078829978</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10">
         <v>86.461266965977231</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10">
         <v>82.724619878487999</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10">
         <v>76.230895884335794</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10">
         <v>70.016632208467783</v>
       </c>
     </row>
@@ -2102,22 +2419,22 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14">
         <v>80.180843548242919</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14">
         <v>68.215716975637051</v>
       </c>
-      <c r="E14" s="117">
+      <c r="E14">
         <v>56.359708994022441</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14">
         <v>51.697292652473926</v>
       </c>
-      <c r="G14" s="122">
+      <c r="G14">
         <v>56.871962560229761</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14">
         <v>48.225013480508757</v>
       </c>
     </row>
@@ -2126,22 +2443,22 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="146">
+      <c r="C15">
         <v>79.809237104127206</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15">
         <v>68.314206870301646</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>64.67615925166595</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15">
         <v>85.160448331444599</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15">
         <v>84.337159779352177</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15">
         <v>80.680928612415926</v>
       </c>
     </row>
@@ -2150,22 +2467,22 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16">
         <v>79.107379821624761</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>67.228741886463851</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16">
         <v>75.423322577761624</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16">
         <v>85.2021326597404</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16">
         <v>87.006957960997354</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16">
         <v>75.016623557873928</v>
       </c>
     </row>
@@ -2174,22 +2491,22 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17">
         <v>79.614835191769259</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17">
         <v>67.732200682243501</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17">
         <v>84.559964474894514</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17">
         <v>87.935703019345596</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17">
         <v>87.046375833700978</v>
       </c>
-      <c r="H17" s="101">
+      <c r="H17">
         <v>82.507213153516332</v>
       </c>
     </row>
@@ -2198,22 +2515,22 @@
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18">
         <v>80.134862758328367</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18">
         <v>69.255725972254652</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18">
         <v>88.955613802887584</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18">
         <v>86.00859869030009</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18">
         <v>86.529814271749757</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18">
         <v>78.3108965763833</v>
       </c>
     </row>
@@ -2222,22 +2539,22 @@
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="135">
+      <c r="C19">
         <v>79.178406964304756</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <v>78.004953906752377</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19">
         <v>87.726439386730576</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19">
         <v>86.549751007073311</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19">
         <v>83.818337528871353</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19">
         <v>74.987667136682276</v>
       </c>
     </row>
@@ -2246,22 +2563,22 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="132">
+      <c r="C20">
         <v>79.520699429349165</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20">
         <v>83.451667690320264</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20">
         <v>86.480961484672605</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20">
         <v>84.246824511169351</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20">
         <v>78.934033454730013</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20">
         <v>68.367540664999979</v>
       </c>
     </row>
@@ -2270,22 +2587,22 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="129">
+      <c r="C21">
         <v>79.458530494785151</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>80.055969342295356</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21">
         <v>81.382924304420158</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21">
         <v>76.118836091431007</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21">
         <v>71.157351418841571</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21">
         <v>66.963901071808579</v>
       </c>
     </row>
@@ -2332,22 +2649,22 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25">
         <v>60.23054986058127</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25">
         <v>60.416479958015778</v>
       </c>
-      <c r="E25" s="116">
+      <c r="E25">
         <v>54.277349573381542</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25">
         <v>51.582349328281389</v>
       </c>
-      <c r="G25" s="123">
+      <c r="G25">
         <v>55.345790188496451</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25">
         <v>45.947612003564039</v>
       </c>
     </row>
@@ -2356,22 +2673,22 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26">
         <v>59.272721505664691</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26">
         <v>61.043284688160497</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26">
         <v>59.726047226475437</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26">
         <v>68.585351084351942</v>
       </c>
-      <c r="G26" s="87">
+      <c r="G26">
         <v>69.101145626980639</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26">
         <v>69.089680706580509</v>
       </c>
     </row>
@@ -2380,22 +2697,22 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C27">
         <v>59.537521950881931</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27">
         <v>60.529474015057787</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27">
         <v>62.891737817801193</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27">
         <v>68.035709651467585</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27">
         <v>74.350204874897997</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27">
         <v>68.32214811546811</v>
       </c>
     </row>
@@ -2404,22 +2721,22 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="142">
+      <c r="C28">
         <v>59.222317378754717</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28">
         <v>60.940227279936103</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28">
         <v>71.16702854984328</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28">
         <v>73.560232643304303</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28">
         <v>73.191192542034685</v>
       </c>
-      <c r="H28" s="102">
+      <c r="H28">
         <v>71.43954532478655</v>
       </c>
     </row>
@@ -2428,22 +2745,22 @@
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="139">
+      <c r="C29">
         <v>59.071998892723983</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29">
         <v>61.287704334235883</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29">
         <v>75.141434326133151</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29">
         <v>74.745467809698468</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29">
         <v>74.646245498086756</v>
       </c>
-      <c r="H29" s="99">
+      <c r="H29">
         <v>69.358644970977267</v>
       </c>
     </row>
@@ -2452,22 +2769,22 @@
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="136">
+      <c r="C30">
         <v>60.22901582193618</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30">
         <v>66.479946481659283</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30">
         <v>70.302747716964106</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30">
         <v>75.775799675314389</v>
       </c>
-      <c r="G30" s="75">
+      <c r="G30">
         <v>73.079628716511394</v>
       </c>
-      <c r="H30" s="96">
+      <c r="H30">
         <v>63.666675317260527</v>
       </c>
     </row>
@@ -2476,22 +2793,22 @@
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="133">
+      <c r="C31">
         <v>59.411240581665922</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31">
         <v>65.367987612349594</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31">
         <v>73.601524811344973</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31">
         <v>69.175229312825664</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31">
         <v>67.353027852028703</v>
       </c>
-      <c r="H31" s="93">
+      <c r="H31">
         <v>61.277819588981451</v>
       </c>
     </row>
@@ -2500,38 +2817,74 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="130">
+      <c r="C32">
         <v>59.563179612280393</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>63.308731044386192</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32">
         <v>65.630319754784495</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32">
         <v>65.236913814133331</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32">
         <v>62.823842190099683</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32">
         <v>56.423873332237591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:H10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2630,42 +2983,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H32">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2684,14 +3001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9" style="126"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -2736,14 +3050,31 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6">
+        <v>93.223217040516474</v>
+      </c>
+      <c r="D3" s="9">
+        <v>74.130324080081436</v>
+      </c>
+      <c r="E3" s="12">
+        <v>57.526754845053453</v>
+      </c>
+      <c r="F3" s="15">
+        <v>51.660694873369742</v>
+      </c>
+      <c r="G3" s="18">
+        <v>57.305697569471477</v>
+      </c>
+      <c r="H3" s="21">
+        <v>49.385819369833072</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4">
         <v>93.539834542974702</v>
       </c>
       <c r="D4">
@@ -2767,7 +3098,7 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5">
         <v>93.69913811249809</v>
       </c>
       <c r="D5">
@@ -2791,7 +3122,7 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="151">
+      <c r="C6">
         <v>93.659806745733093</v>
       </c>
       <c r="D6">
@@ -2815,7 +3146,7 @@
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7">
         <v>93.394296951819072</v>
       </c>
       <c r="D7">
@@ -2839,7 +3170,7 @@
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="164">
+      <c r="C8">
         <v>93.506414415349596</v>
       </c>
       <c r="D8">
@@ -2863,7 +3194,7 @@
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9">
         <v>93.522135427930451</v>
       </c>
       <c r="D9">
@@ -2887,22 +3218,22 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="160">
+      <c r="C10">
         <v>93.67354965585055</v>
       </c>
-      <c r="D10" s="169">
+      <c r="D10">
         <v>93.250852804378354</v>
       </c>
-      <c r="E10" s="172">
+      <c r="E10">
         <v>91.162933935414657</v>
       </c>
-      <c r="F10" s="175">
+      <c r="F10">
         <v>87.199497112143419</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10">
         <v>82.806690946000103</v>
       </c>
-      <c r="H10" s="181">
+      <c r="H10">
         <v>76.162856080069886</v>
       </c>
     </row>
@@ -2949,14 +3280,31 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="7">
+        <v>89.811417053780744</v>
+      </c>
+      <c r="D14" s="10">
+        <v>71.269117091555017</v>
+      </c>
+      <c r="E14" s="13">
+        <v>57.708532657433587</v>
+      </c>
+      <c r="F14" s="16">
+        <v>52.338791858061057</v>
+      </c>
+      <c r="G14" s="19">
+        <v>56.960988705207953</v>
+      </c>
+      <c r="H14" s="22">
+        <v>48.744983376442129</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="158">
+      <c r="C15">
         <v>90.031603502913825</v>
       </c>
       <c r="D15">
@@ -2980,7 +3328,7 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="155">
+      <c r="C16">
         <v>89.601098048714391</v>
       </c>
       <c r="D16">
@@ -3004,7 +3352,7 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="152">
+      <c r="C17">
         <v>90.021805263597997</v>
       </c>
       <c r="D17">
@@ -3028,7 +3376,7 @@
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="149">
+      <c r="C18">
         <v>89.430098876287857</v>
       </c>
       <c r="D18">
@@ -3052,7 +3400,7 @@
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="165">
+      <c r="C19">
         <v>89.469141889924074</v>
       </c>
       <c r="D19">
@@ -3076,7 +3424,7 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="163">
+      <c r="C20">
         <v>89.878303445531543</v>
       </c>
       <c r="D20">
@@ -3100,22 +3448,22 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="161">
+      <c r="C21">
         <v>89.683532441168765</v>
       </c>
-      <c r="D21" s="170">
+      <c r="D21">
         <v>89.565584477374344</v>
       </c>
-      <c r="E21" s="173">
+      <c r="E21">
         <v>88.031989896106381</v>
       </c>
-      <c r="F21" s="176">
+      <c r="F21">
         <v>85.015989180990616</v>
       </c>
-      <c r="G21" s="179">
+      <c r="G21">
         <v>81.062973439793296</v>
       </c>
-      <c r="H21" s="182">
+      <c r="H21">
         <v>74.421341591766947</v>
       </c>
     </row>
@@ -3162,14 +3510,31 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="8">
+        <v>89.074103870564031</v>
+      </c>
+      <c r="D25" s="11">
+        <v>70.725854029879159</v>
+      </c>
+      <c r="E25" s="14">
+        <v>57.619304665265282</v>
+      </c>
+      <c r="F25" s="17">
+        <v>52.227695164606388</v>
+      </c>
+      <c r="G25" s="20">
+        <v>56.659071445254718</v>
+      </c>
+      <c r="H25" s="23">
+        <v>48.852048893156507</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="159">
+      <c r="C26">
         <v>88.507570711395999</v>
       </c>
       <c r="D26">
@@ -3193,7 +3558,7 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="156">
+      <c r="C27">
         <v>89.052217868089983</v>
       </c>
       <c r="D27">
@@ -3217,7 +3582,7 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28">
         <v>88.519427792051246</v>
       </c>
       <c r="D28">
@@ -3241,7 +3606,7 @@
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="150">
+      <c r="C29">
         <v>88.62364437985336</v>
       </c>
       <c r="D29">
@@ -3265,7 +3630,7 @@
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="166">
+      <c r="C30">
         <v>88.670853554096482</v>
       </c>
       <c r="D30">
@@ -3289,7 +3654,7 @@
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="167">
+      <c r="C31">
         <v>88.991496466232405</v>
       </c>
       <c r="D31">
@@ -3313,38 +3678,74 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="168">
+      <c r="C32">
         <v>89.038498026222825</v>
       </c>
-      <c r="D32" s="171">
+      <c r="D32">
         <v>88.411185794571466</v>
       </c>
-      <c r="E32" s="174">
+      <c r="E32">
         <v>88.285481131613025</v>
       </c>
-      <c r="F32" s="177">
+      <c r="F32">
         <v>83.988160220532478</v>
       </c>
-      <c r="G32" s="180">
+      <c r="G32">
         <v>78.952095894716493</v>
       </c>
-      <c r="H32" s="183">
+      <c r="H32">
         <v>72.207810332846023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C4:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3443,42 +3844,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:H32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H10">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/plv/summary_selection_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\plv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07993F-9476-46C7-9B6F-5073E8FC57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FD248-1BD5-4B3A-A4D1-0ADC1F279AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,24 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,19 +424,19 @@
       <c r="C2" s="1">
         <v>0.01</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2">
         <v>0.15</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2">
         <v>0.3</v>
       </c>
     </row>
@@ -465,22 +447,22 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3">
         <v>93.223217040516474</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3">
         <v>74.130324080081436</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3">
         <v>57.526754845053453</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3">
         <v>51.660694873369742</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3">
         <v>57.305697569471477</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3">
         <v>49.385819369833072</v>
       </c>
     </row>
@@ -489,22 +471,22 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4">
         <v>93.539834542974702</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4">
         <v>73.46378428879143</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4">
         <v>65.63470848940446</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4">
         <v>89.632989904756954</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4">
         <v>90.346242902908628</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4">
         <v>87.337087691069982</v>
       </c>
     </row>
@@ -513,22 +495,22 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5">
         <v>93.69913811249809</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5">
         <v>73.964665207599836</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5">
         <v>83.213776359080384</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5">
         <v>91.492913721860333</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5">
         <v>90.026303572406917</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5">
         <v>83.615273488524991</v>
       </c>
     </row>
@@ -537,130 +519,120 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6">
         <v>93.659806745733093</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6">
         <v>74.589930132036912</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6">
         <v>89.770568949558367</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6">
         <v>91.250841270253204</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6">
         <v>91.042361958148419</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6">
         <v>87.152922314783581</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="23">
+      <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7">
         <v>93.394296951819072</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7">
         <v>74.382604232447235</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7">
         <v>92.385493530797561</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7">
         <v>91.679495497365906</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7">
         <v>91.1780667076128</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7">
         <v>86.441393668342002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="23">
+      <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8">
         <v>93.506414415349596</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8">
         <v>86.70483308679141</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8">
         <v>92.684365781710923</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8">
         <v>92.371716018304653</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8">
         <v>91.024789718480818</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8">
         <v>85.414475903770793</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="23">
+      <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9">
         <v>93.522135427930451</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9">
         <v>93.941037552227939</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9">
         <v>93.183897207876655</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9">
         <v>91.966626008875494</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9">
         <v>89.806682295406262</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9">
         <v>81.964630605224386</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="23">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10">
         <v>93.67354965585055</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>93.250852804378354</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10">
         <v>91.162933935414657</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10">
         <v>87.199497112143419</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10">
         <v>82.806690946000103</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10">
         <v>76.162856080069886</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -682,19 +654,19 @@
       <c r="C13" s="1">
         <v>0.01</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13">
         <v>0.3</v>
       </c>
     </row>
@@ -705,22 +677,22 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14">
         <v>89.811417053780744</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14">
         <v>71.269117091555017</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14">
         <v>57.708532657433587</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14">
         <v>52.338791858061057</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14">
         <v>56.960988705207953</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14">
         <v>48.744983376442129</v>
       </c>
     </row>
@@ -729,22 +701,22 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15">
         <v>90.031603502913825</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15">
         <v>71.854854569099501</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15">
         <v>66.707797356955226</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15">
         <v>89.841157795482658</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15">
         <v>90.594042047653232</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15">
         <v>87.21090436191777</v>
       </c>
     </row>
@@ -753,22 +725,22 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16">
         <v>89.601098048714391</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16">
         <v>71.481725620463848</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16">
         <v>85.366678489144959</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16">
         <v>91.671629224012889</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16">
         <v>91.001179364296689</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16">
         <v>83.021727408253255</v>
       </c>
     </row>
@@ -777,130 +749,120 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17">
         <v>90.021805263597997</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17">
         <v>71.150563586190174</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17">
         <v>90.456820560731487</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17">
         <v>91.937081347301145</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17">
         <v>91.170165831884376</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17">
         <v>86.024377373506695</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="23">
+      <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18">
         <v>89.430098876287857</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18">
         <v>73.085061289457514</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18">
         <v>91.659910552859444</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18">
         <v>91.120990089302964</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18">
         <v>91.490658800393319</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18">
         <v>86.588690213583178</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="23">
+      <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19">
         <v>89.469141889924074</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19">
         <v>83.01407451621553</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19">
         <v>92.025565388397254</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19">
         <v>91.610654071401996</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19">
         <v>89.882248116333187</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19">
         <v>82.399230673852415</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="23">
+      <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20">
         <v>89.878303445531543</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20">
         <v>90.265578998664921</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20">
         <v>91.447394296951828</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20">
         <v>90.15567032010081</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20">
         <v>87.538548488020353</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20">
         <v>75.855004512726467</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="23">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21">
         <v>89.683532441168765</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21">
         <v>89.565584477374344</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21">
         <v>88.031989896106381</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21">
         <v>85.015989180990616</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21">
         <v>81.062973439793296</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21">
         <v>74.421341591766947</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -922,19 +884,19 @@
       <c r="C24" s="1">
         <v>0.01</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24">
         <v>0.05</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24">
         <v>0.15</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24">
         <v>0.3</v>
       </c>
     </row>
@@ -945,22 +907,22 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25">
         <v>89.074103870564031</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25">
         <v>70.725854029879159</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25">
         <v>57.619304665265282</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25">
         <v>52.227695164606388</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25">
         <v>56.659071445254718</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25">
         <v>48.852048893156507</v>
       </c>
     </row>
@@ -969,22 +931,22 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26">
         <v>88.507570711395999</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26">
         <v>69.545053734605546</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26">
         <v>66.733051323973385</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26">
         <v>89.68180808945867</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26">
         <v>89.911585163654806</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26">
         <v>86.445661294647877</v>
       </c>
     </row>
@@ -993,22 +955,22 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27">
         <v>89.052217868089983</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27">
         <v>70.159961014656986</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27">
         <v>83.752593015510513</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27">
         <v>90.359997347151207</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27">
         <v>90.246167066035753</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27">
         <v>81.721035649097317</v>
       </c>
     </row>
@@ -1017,118 +979,118 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28">
         <v>88.519427792051246</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28">
         <v>69.973702194655658</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28">
         <v>89.540814943612546</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28">
         <v>91.428253416263701</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28">
         <v>90.883081456875345</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28">
         <v>85.822622456364968</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="23">
+      <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29">
         <v>88.62364437985336</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29">
         <v>71.127743319578897</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29">
         <v>92.066909460001099</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29">
         <v>90.759187651565597</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29">
         <v>91.622476549681821</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29">
         <v>85.360046367183102</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="23">
+      <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30">
         <v>88.670853554096482</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30">
         <v>79.835056243277748</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30">
         <v>91.254705202178812</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30">
         <v>90.727826365279995</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30">
         <v>88.637641040724105</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30">
         <v>82.277418778132457</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="23">
+      <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31">
         <v>88.991496466232405</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31">
         <v>90.132394455546034</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31">
         <v>90.58802700138699</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31">
         <v>89.766185982000991</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31">
         <v>86.861985541974107</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31">
         <v>73.758383146336328</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="23">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32">
         <v>89.038498026222825</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32">
         <v>88.411185794571466</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32">
         <v>88.285481131613025</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32">
         <v>83.988160220532478</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32">
         <v>78.952095894716493</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32">
         <v>72.207810332846023</v>
       </c>
     </row>
@@ -1824,12 +1786,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="A25:A32"/>
@@ -1838,12 +1798,50 @@
     <mergeCell ref="A45:B46"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C4:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C36:H43">
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -1880,6 +1878,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D36:H43">
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -1988,151 +2094,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:H32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:H21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:H21">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H32">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:H32">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3050,22 +3013,22 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>93.223217040516474</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>74.130324080081436</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>57.526754845053453</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3">
         <v>51.660694873369742</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3">
         <v>57.305697569471477</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3">
         <v>49.385819369833072</v>
       </c>
     </row>
@@ -3280,22 +3243,22 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>89.811417053780744</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14">
         <v>71.269117091555017</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14">
         <v>57.708532657433587</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14">
         <v>52.338791858061057</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14">
         <v>56.960988705207953</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14">
         <v>48.744983376442129</v>
       </c>
     </row>
@@ -3510,22 +3473,22 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>89.074103870564031</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25">
         <v>70.725854029879159</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>57.619304665265282</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25">
         <v>52.227695164606388</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25">
         <v>56.659071445254718</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25">
         <v>48.852048893156507</v>
       </c>
     </row>
